--- a/resultsPSCC/L1/results_A_IEEE_118_syst_DCA_l1_35_100_10.0_3.0.xlsx
+++ b/resultsPSCC/L1/results_A_IEEE_118_syst_DCA_l1_35_100_10.0_3.0.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">force</t>
   </si>
   <si>
-    <t xml:space="preserve">IEEE254</t>
+    <t xml:space="preserve">IEEE54</t>
   </si>
 </sst>
 </file>
@@ -178,7 +178,7 @@
   <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I102" activeCellId="0" sqref="A102:I201"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -226,16 +226,16 @@
         <v>10</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>64.8989679813385</v>
+        <v>38.0645499229431</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>1650272.65707196</v>
+        <v>1631327.42608349</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>1634549.07619383</v>
+        <v>1645507.20600491</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>1633443.68873295</v>
+        <v>1643965.29948753</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>3</v>
@@ -255,16 +255,16 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>47.3100140094757</v>
+        <v>33.7496731281281</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>1637620.19946697</v>
+        <v>1640277.72085325</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>1645800.67975988</v>
+        <v>1634617.53704429</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>1644737.65901004</v>
+        <v>1632994.82556616</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>3</v>
@@ -284,16 +284,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>41.5679578781128</v>
+        <v>41.7622170448303</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>1638674.64411427</v>
+        <v>1628837.64467519</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>1635532.38429444</v>
+        <v>1641380.60888301</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>1634179.97819121</v>
+        <v>1639826.72113911</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>3</v>
@@ -313,16 +313,16 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>70.5640239715576</v>
+        <v>39.4774858951569</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>1637749.21640651</v>
+        <v>1631969.62810697</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>1638060.81898965</v>
+        <v>1648567.77233535</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>1636843.84613314</v>
+        <v>1647204.0583925</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>3</v>
@@ -342,16 +342,16 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>43.0416259765625</v>
+        <v>34.5905990600586</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1633592.8455129</v>
+        <v>1633498.26744345</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>1643191.10532792</v>
+        <v>1640798.2583072</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>1642474.20650073</v>
+        <v>1639833.67886742</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>3</v>
@@ -371,16 +371,16 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>56.1216270923615</v>
+        <v>32.6030302047729</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1633126.26091362</v>
+        <v>1630651.09003589</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>1646530.26786036</v>
+        <v>1645898.52763324</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>1644961.59897653</v>
+        <v>1644259.2238651</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>3</v>
@@ -400,16 +400,16 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>75.4121119976044</v>
+        <v>43.6545519828796</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1634630.13421731</v>
+        <v>1633648.40668239</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>1640939.23729467</v>
+        <v>1640545.08923327</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>1640087.81543214</v>
+        <v>1639569.22773177</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>3</v>
@@ -429,16 +429,16 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>73.3356409072876</v>
+        <v>36.4684519767761</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1638024.48553757</v>
+        <v>1626966.34897236</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>1645379.93190635</v>
+        <v>1638301.76465017</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>1644235.38802235</v>
+        <v>1637038.39855269</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>3</v>
@@ -458,16 +458,16 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>75.6243560314178</v>
+        <v>42.5551300048828</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1635579.27632982</v>
+        <v>1639504.17114622</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>1641101.35809583</v>
+        <v>1642443.10401043</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>1639498.00824945</v>
+        <v>1640810.43118063</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>3</v>
@@ -487,16 +487,16 @@
         <v>10</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>50.6659910678864</v>
+        <v>29.7793290615082</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>1630031.02495947</v>
+        <v>1630556.52182893</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>1650354.88073413</v>
+        <v>1639549.10626871</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>1648809.93704361</v>
+        <v>1638057.03044275</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>3</v>
@@ -516,16 +516,16 @@
         <v>10</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>103.135468959808</v>
+        <v>47.8877789974213</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>1628229.22799711</v>
+        <v>1629974.87141216</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>1634893.02945524</v>
+        <v>1646913.013469</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>1633367.64568122</v>
+        <v>1645906.17043518</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>3</v>
@@ -545,16 +545,16 @@
         <v>10</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>73.6817541122437</v>
+        <v>55.5664761066437</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1631111.57544533</v>
+        <v>1628631.38341794</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>1640887.4772267</v>
+        <v>1636109.51110114</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>1639309.79878725</v>
+        <v>1634478.80752199</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>3</v>
@@ -574,16 +574,16 @@
         <v>10</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>71.9260268211365</v>
+        <v>56.5501620769501</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1632032.72472588</v>
+        <v>1631656.12422382</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>1643287.65588733</v>
+        <v>1642705.74726301</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>1641860.0338219</v>
+        <v>1641071.69936781</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>3</v>
@@ -603,16 +603,16 @@
         <v>10</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>74.2281088829041</v>
+        <v>85.5633561611176</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>1628653.78855357</v>
+        <v>1630568.07999554</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>1637848.07249063</v>
+        <v>1637123.32228215</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>1636351.83600239</v>
+        <v>1635860.72182636</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>3</v>
@@ -632,16 +632,16 @@
         <v>10</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>82.3522770404816</v>
+        <v>54.5191509723663</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>1629363.10362572</v>
+        <v>1627801.50693593</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>1638345.65630157</v>
+        <v>1640994.61721567</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>1636759.6444898</v>
+        <v>1639584.96540227</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>10</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>67.0204319953919</v>
+        <v>46.6940159797669</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>1631807.19166535</v>
+        <v>1628328.36476718</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>1639354.95983575</v>
+        <v>1640555.64814481</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>1637968.40020285</v>
+        <v>1639347.25055036</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>3</v>
@@ -690,16 +690,16 @@
         <v>10</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>85.0061349868775</v>
+        <v>76.8957540988922</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1630940.44617126</v>
+        <v>1630201.82670164</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>1640746.53634106</v>
+        <v>1640680.78050086</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>1639293.35926244</v>
+        <v>1639592.93192498</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>3</v>
@@ -719,16 +719,16 @@
         <v>10</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>106.034466028214</v>
+        <v>107.86053109169</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>1631392.64302175</v>
+        <v>1624157.02478394</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>1641043.66365343</v>
+        <v>1636223.97331865</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>1639769.08110076</v>
+        <v>1634867.09891145</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>3</v>
@@ -748,16 +748,16 @@
         <v>10</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>100.842036962509</v>
+        <v>66.7183699607849</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>1634018.6803248</v>
+        <v>1626539.29956769</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>1639729.80053248</v>
+        <v>1640462.13294715</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>1638170.71474195</v>
+        <v>1638825.81505606</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>3</v>
@@ -777,16 +777,16 @@
         <v>10</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>93.486780166626</v>
+        <v>48.6897821426392</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>1629423.32455938</v>
+        <v>1627318.35246171</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>1637492.06652513</v>
+        <v>1636652.05173651</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>1635860.03468707</v>
+        <v>1635223.62767603</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>3</v>
@@ -806,16 +806,16 @@
         <v>10</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>136.931650876999</v>
+        <v>69.7594470977783</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>1626889.93837276</v>
+        <v>1628126.8286643</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>1634619.25016456</v>
+        <v>1644543.04014144</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>1634418.6213908</v>
+        <v>1644498.02373494</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>3</v>
@@ -835,16 +835,16 @@
         <v>10</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>94.9577460289001</v>
+        <v>88.927524805069</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>1629776.24784599</v>
+        <v>1630997.29229152</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>1637256.66338597</v>
+        <v>1639241.33806113</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>1636255.91448399</v>
+        <v>1638273.4930081</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>3</v>
@@ -864,16 +864,16 @@
         <v>10</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>99.2713680267334</v>
+        <v>98.8723268508911</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>1630974.81294468</v>
+        <v>1624674.35412781</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>1633106.4997996</v>
+        <v>1641956.0441231</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>1631483.52608583</v>
+        <v>1640888.80954003</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>3</v>
@@ -893,16 +893,16 @@
         <v>10</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>97.326073884964</v>
+        <v>109.272222042084</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>1630949.59452591</v>
+        <v>1626896.36558942</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>1641440.10726354</v>
+        <v>1638062.95706163</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>1639816.94053887</v>
+        <v>1636668.72257802</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>3</v>
@@ -922,16 +922,16 @@
         <v>10</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>112.027740001678</v>
+        <v>78.1900789737701</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>1629292.09294354</v>
+        <v>1628156.55543395</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>1644365.80099075</v>
+        <v>1639562.49828203</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>1642723.15194231</v>
+        <v>1637972.47734883</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>3</v>
@@ -951,16 +951,16 @@
         <v>10</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>117.067290782928</v>
+        <v>73.2262508869171</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>1629675.89750019</v>
+        <v>1627162.23319593</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>1636622.2951607</v>
+        <v>1641480.23769852</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>1635647.13392452</v>
+        <v>1639958.55225974</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>3</v>
@@ -980,16 +980,16 @@
         <v>10</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>102.95036816597</v>
+        <v>90.6577069759369</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>1630222.30122003</v>
+        <v>1631279.75217942</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>1640930.914247</v>
+        <v>1640824.0182013</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>1639447.20614952</v>
+        <v>1639199.32527585</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>3</v>
@@ -1009,16 +1009,16 @@
         <v>10</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>107.61439204216</v>
+        <v>76.8637630939484</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>1631193.38641061</v>
+        <v>1627424.49342512</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>1639054.91160705</v>
+        <v>1640651.71779953</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>1638076.57786563</v>
+        <v>1639191.02471318</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>3</v>
@@ -1038,16 +1038,16 @@
         <v>10</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>134.159000873566</v>
+        <v>63.938747882843</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>1631261.97894501</v>
+        <v>1623591.22965522</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>1636309.57771649</v>
+        <v>1636682.29018292</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>1634962.99398055</v>
+        <v>1635444.77777298</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>3</v>
@@ -1067,16 +1067,16 @@
         <v>10</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>156.69131398201</v>
+        <v>79.0141270160675</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>1626423.01199102</v>
+        <v>1631907.29853812</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>1633483.37105544</v>
+        <v>1632131.5868035</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>1632630.57326585</v>
+        <v>1630610.72031546</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>3</v>
@@ -1096,16 +1096,16 @@
         <v>10</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>126.263906002045</v>
+        <v>91.0807678699493</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>1627242.28051799</v>
+        <v>1626962.87827105</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>1639914.20928099</v>
+        <v>1643107.10607962</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>1639205.11331944</v>
+        <v>1641976.77968302</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>3</v>
@@ -1125,16 +1125,16 @@
         <v>10</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>122.426057100296</v>
+        <v>80.4209530353546</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>1629400.01744604</v>
+        <v>1630433.81300893</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>1637206.18007014</v>
+        <v>1639515.60712372</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>1636049.32420391</v>
+        <v>1637983.60888242</v>
       </c>
       <c r="I33" s="0" t="n">
         <v>3</v>
@@ -1154,16 +1154,16 @@
         <v>10</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>153.97403883934</v>
+        <v>110.622187137604</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>1630940.23576286</v>
+        <v>1628947.70328344</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>1640170.93601366</v>
+        <v>1639078.27109531</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>1639427.72030758</v>
+        <v>1637547.81138801</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>3</v>
@@ -1183,16 +1183,16 @@
         <v>10</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>135.03403711319</v>
+        <v>138.591556072235</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>1631001.98919076</v>
+        <v>1626791.2800841</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>1640323.57358608</v>
+        <v>1638398.7821986</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>1640323.57358608</v>
+        <v>1637183.60208586</v>
       </c>
       <c r="I35" s="0" t="n">
         <v>3</v>
@@ -1212,16 +1212,16 @@
         <v>10</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>149.927258014679</v>
+        <v>83.1242649555206</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>1631352.8878749</v>
+        <v>1627300.2967068</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>1646611.84511032</v>
+        <v>1638912.76484438</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>1645143.60437778</v>
+        <v>1637747.14112602</v>
       </c>
       <c r="I36" s="0" t="n">
         <v>3</v>
@@ -1241,16 +1241,16 @@
         <v>10</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>129.352424860001</v>
+        <v>82.8862218856812</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>1628294.75800746</v>
+        <v>1625121.58202302</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>1637701.9526114</v>
+        <v>1637483.3661849</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>1636755.08716204</v>
+        <v>1636530.45569538</v>
       </c>
       <c r="I37" s="0" t="n">
         <v>3</v>
@@ -1270,16 +1270,16 @@
         <v>10</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>175.754760026932</v>
+        <v>86.4050829410553</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>1628287.19262265</v>
+        <v>1628212.97051951</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>1637853.19451126</v>
+        <v>1638364.32264313</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>1636520.67412767</v>
+        <v>1636982.09342334</v>
       </c>
       <c r="I38" s="0" t="n">
         <v>3</v>
@@ -1299,16 +1299,16 @@
         <v>10</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>144.613019227982</v>
+        <v>100.482949018478</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>1628867.21923895</v>
+        <v>1630518.99307704</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>1635196.41014627</v>
+        <v>1638091.19494086</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>1634753.67687731</v>
+        <v>1636479.90865924</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>3</v>
@@ -1328,16 +1328,16 @@
         <v>10</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>166.345168113709</v>
+        <v>106.662432193756</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>1629553.40687386</v>
+        <v>1623955.68012878</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>1632795.30668724</v>
+        <v>1634100.52763574</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>1631537.2988589</v>
+        <v>1632759.99540839</v>
       </c>
       <c r="I40" s="0" t="n">
         <v>3</v>
@@ -1357,16 +1357,16 @@
         <v>10</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>172.266309976578</v>
+        <v>91.9757251739502</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>1625611.08412101</v>
+        <v>1628614.35939952</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>1633169.32681605</v>
+        <v>1634400.64460029</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>1631557.95037204</v>
+        <v>1633811.4692465</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>3</v>
@@ -1386,16 +1386,16 @@
         <v>10</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>106.462332010269</v>
+        <v>178.0784740448</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>1627510.36597245</v>
+        <v>1626935.4527676</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>1640135.72878789</v>
+        <v>1643266.12674583</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>1639423.2971805</v>
+        <v>1641627.93384724</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>3</v>
@@ -1415,16 +1415,16 @@
         <v>10</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>110.387717962265</v>
+        <v>128.149362802505</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>1628703.58448031</v>
+        <v>1628548.72399217</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>1635850.68097716</v>
+        <v>1638014.82522138</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>1635157.62414506</v>
+        <v>1636765.73105412</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>3</v>
@@ -1444,16 +1444,16 @@
         <v>10</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>80.6476759910584</v>
+        <v>105.401698827744</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>1631050.68170959</v>
+        <v>1630182.46307831</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>1639094.25898651</v>
+        <v>1639687.82522815</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>1637857.49971968</v>
+        <v>1638276.52985343</v>
       </c>
       <c r="I44" s="0" t="n">
         <v>3</v>
@@ -1473,16 +1473,16 @@
         <v>10</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>145.508950948715</v>
+        <v>122.269385099411</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>1632929.11217213</v>
+        <v>1626432.72730037</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>1639148.01048342</v>
+        <v>1637911.06326878</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>1639148.01048342</v>
+        <v>1637518.37237113</v>
       </c>
       <c r="I45" s="0" t="n">
         <v>3</v>
@@ -1502,16 +1502,16 @@
         <v>10</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>84.3825469017029</v>
+        <v>117.570286035538</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>1635348.94911366</v>
+        <v>1624488.1450732</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>1641692.87649985</v>
+        <v>1640162.76671307</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>1641107.30900911</v>
+        <v>1639064.90236758</v>
       </c>
       <c r="I46" s="0" t="n">
         <v>3</v>
@@ -1531,16 +1531,16 @@
         <v>10</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>90.3985049724579</v>
+        <v>137.450045108795</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>1629665.77881298</v>
+        <v>1627101.11144827</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>1641090.29274287</v>
+        <v>1636715.83379129</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>1639798.83638757</v>
+        <v>1636186.03665522</v>
       </c>
       <c r="I47" s="0" t="n">
         <v>3</v>
@@ -1560,16 +1560,16 @@
         <v>10</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>110.652806043625</v>
+        <v>141.97652888298</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>1628322.00038438</v>
+        <v>1627288.06152507</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>1639608.98390812</v>
+        <v>1634776.11069128</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>1639525.35683231</v>
+        <v>1634469.44197193</v>
       </c>
       <c r="I48" s="0" t="n">
         <v>3</v>
@@ -1589,16 +1589,16 @@
         <v>10</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>111.944473981857</v>
+        <v>124.047503948212</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>1633398.3882862</v>
+        <v>1627455.55550937</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>1634847.92437448</v>
+        <v>1637804.6529902</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>1633371.63172192</v>
+        <v>1636579.88436557</v>
       </c>
       <c r="I49" s="0" t="n">
         <v>3</v>
@@ -1618,16 +1618,16 @@
         <v>10</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>158.287770986557</v>
+        <v>122.448711872101</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>1631079.44184625</v>
+        <v>1626203.44200274</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>1631677.08649106</v>
+        <v>1637522.42421657</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>1630437.57836249</v>
+        <v>1636310.18002357</v>
       </c>
       <c r="I50" s="0" t="n">
         <v>3</v>
@@ -1647,16 +1647,16 @@
         <v>10</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>126.378570795059</v>
+        <v>117.040433168411</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>1627002.05978603</v>
+        <v>1626566.49180429</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>1632297.24720755</v>
+        <v>1637739.10903044</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>1631990.06369279</v>
+        <v>1636230.76737452</v>
       </c>
       <c r="I51" s="0" t="n">
         <v>3</v>
@@ -1676,16 +1676,16 @@
         <v>10</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>123.044065952301</v>
+        <v>150.720517158508</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>1627214.2191015</v>
+        <v>1625355.86364434</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>1637158.12985965</v>
+        <v>1639899.33124931</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>1637158.12985965</v>
+        <v>1639481.38269182</v>
       </c>
       <c r="I52" s="0" t="n">
         <v>3</v>
@@ -1705,16 +1705,16 @@
         <v>10</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>149.264449119568</v>
+        <v>93.1804039478302</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>1626874.41823677</v>
+        <v>1628050.9926242</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>1637390.43798203</v>
+        <v>1639503.41325573</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>1635962.91526685</v>
+        <v>1638618.80810846</v>
       </c>
       <c r="I53" s="0" t="n">
         <v>3</v>
@@ -1734,16 +1734,16 @@
         <v>10</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>135.439168930054</v>
+        <v>149.374532938004</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>1630051.95758901</v>
+        <v>1624882.59788871</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>1639703.40751782</v>
+        <v>1638171.04957546</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>1639703.40751782</v>
+        <v>1638171.04957546</v>
       </c>
       <c r="I54" s="0" t="n">
         <v>3</v>
@@ -1763,16 +1763,16 @@
         <v>10</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>104.753906965256</v>
+        <v>208.165343046188</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>1628670.12531435</v>
+        <v>1626985.95701078</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>1639678.48475007</v>
+        <v>1638753.16515938</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>1638361.55369088</v>
+        <v>1637118.13051648</v>
       </c>
       <c r="I55" s="0" t="n">
         <v>3</v>
@@ -1792,16 +1792,16 @@
         <v>10</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>111.689961194992</v>
+        <v>133.078486204147</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>1631454.31535576</v>
+        <v>1625508.21775751</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>1642014.89802883</v>
+        <v>1636588.73959189</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>1641947.62933137</v>
+        <v>1635475.62315262</v>
       </c>
       <c r="I56" s="0" t="n">
         <v>3</v>
@@ -1821,16 +1821,16 @@
         <v>10</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>130.24346113205</v>
+        <v>142.154939174652</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>1628427.82006991</v>
+        <v>1626689.52971426</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>1641842.74618362</v>
+        <v>1636838.31646469</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>1640681.3334186</v>
+        <v>1636438.95543551</v>
       </c>
       <c r="I57" s="0" t="n">
         <v>3</v>
@@ -1850,16 +1850,16 @@
         <v>10</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>124.035957098007</v>
+        <v>136.691684961319</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>1627484.8977378</v>
+        <v>1626716.79613072</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>1642136.26449381</v>
+        <v>1636208.87045265</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>1640536.48103642</v>
+        <v>1635177.93625891</v>
       </c>
       <c r="I58" s="0" t="n">
         <v>3</v>
@@ -1879,16 +1879,16 @@
         <v>10</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>124.834172964096</v>
+        <v>144.880552053452</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>1631835.76052383</v>
+        <v>1625673.11744241</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>1633856.32182502</v>
+        <v>1637933.97778545</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>1633044.30046957</v>
+        <v>1636710.54211934</v>
       </c>
       <c r="I59" s="0" t="n">
         <v>3</v>
@@ -1908,16 +1908,16 @@
         <v>10</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>153.157356023788</v>
+        <v>166.407279014587</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>1630653.64454589</v>
+        <v>1625355.71690443</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>1629921.19770647</v>
+        <v>1636328.27178799</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>1629315.2092092</v>
+        <v>1636209.06179203</v>
       </c>
       <c r="I60" s="0" t="n">
         <v>3</v>
@@ -1937,16 +1937,16 @@
         <v>10</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>121.954919099808</v>
+        <v>160.918065786362</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>1628751.70892612</v>
+        <v>1626416.70938991</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>1636461.94163635</v>
+        <v>1638742.79972844</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>1635106.03589887</v>
+        <v>1637105.36658404</v>
       </c>
       <c r="I61" s="0" t="n">
         <v>3</v>
@@ -1966,16 +1966,16 @@
         <v>10</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>216.504045009613</v>
+        <v>196.45201587677</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>1626175.90415864</v>
+        <v>1625682.67096016</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>1636328.44880976</v>
+        <v>1639462.34186209</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>1635661.00477249</v>
+        <v>1637874.57057118</v>
       </c>
       <c r="I62" s="0" t="n">
         <v>3</v>
@@ -1995,16 +1995,16 @@
         <v>10</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>244.350927114487</v>
+        <v>112.679689884186</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>1627026.01587301</v>
+        <v>1631288.5674126</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>1635381.90106189</v>
+        <v>1639121.82246571</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>1634690.33504325</v>
+        <v>1637516.94265295</v>
       </c>
       <c r="I63" s="0" t="n">
         <v>3</v>
@@ -2024,16 +2024,16 @@
         <v>10</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>234.206279039383</v>
+        <v>184.964608192444</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>1628010.63660541</v>
+        <v>1623946.50551533</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>1641174.6215768</v>
+        <v>1637144.68232446</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>1640561.74847433</v>
+        <v>1636246.10280101</v>
       </c>
       <c r="I64" s="0" t="n">
         <v>3</v>
@@ -2053,16 +2053,16 @@
         <v>10</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>340.705892086029</v>
+        <v>156.070997953415</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>1626441.90182772</v>
+        <v>1625043.30117143</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>1637943.69844239</v>
+        <v>1634415.00910008</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>1637943.69844239</v>
+        <v>1633764.86911667</v>
       </c>
       <c r="I65" s="0" t="n">
         <v>3</v>
@@ -2082,16 +2082,16 @@
         <v>10</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>240.344221830368</v>
+        <v>135.057285070419</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>1629682.57007494</v>
+        <v>1624731.12014191</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>1647352.74019626</v>
+        <v>1635366.80499018</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>1645979.65240959</v>
+        <v>1635320.02991694</v>
       </c>
       <c r="I66" s="0" t="n">
         <v>3</v>
@@ -2111,16 +2111,16 @@
         <v>10</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>226.402444124222</v>
+        <v>196.389173984528</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>1628475.08248216</v>
+        <v>1625263.82652079</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>1640872.61959177</v>
+        <v>1633820.85854815</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>1639598.15139832</v>
+        <v>1632954.52968281</v>
       </c>
       <c r="I67" s="0" t="n">
         <v>3</v>
@@ -2140,16 +2140,16 @@
         <v>10</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>201.444465875626</v>
+        <v>163.114530086517</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>1625672.1677725</v>
+        <v>1627507.0923912</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>1639100.96682438</v>
+        <v>1636261.81068281</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>1638758.38949762</v>
+        <v>1635370.90809467</v>
       </c>
       <c r="I68" s="0" t="n">
         <v>3</v>
@@ -2169,16 +2169,16 @@
         <v>10</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>282.920130968094</v>
+        <v>176.664489030838</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>1627048.63134463</v>
+        <v>1625674.77475548</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>1635088.26121515</v>
+        <v>1637043.80296569</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>1634239.96908552</v>
+        <v>1636936.68945884</v>
       </c>
       <c r="I69" s="0" t="n">
         <v>3</v>
@@ -2198,16 +2198,16 @@
         <v>10</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>251.494014978409</v>
+        <v>195.93455696106</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>1629040.8963192</v>
+        <v>1625631.38542556</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>1632034.25222869</v>
+        <v>1636522.92254337</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>1630503.57937684</v>
+        <v>1636261.85503362</v>
       </c>
       <c r="I70" s="0" t="n">
         <v>3</v>
@@ -2227,16 +2227,16 @@
         <v>10</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>227.655784130096</v>
+        <v>178.164650917053</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>1627090.91284491</v>
+        <v>1625510.74987294</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>1635845.19069133</v>
+        <v>1636035.49579035</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>1635328.17336063</v>
+        <v>1635342.29581854</v>
       </c>
       <c r="I71" s="0" t="n">
         <v>3</v>
@@ -2256,16 +2256,16 @@
         <v>10</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>289.314478158951</v>
+        <v>222.865463018417</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>1624654.12078872</v>
+        <v>1625318.70620529</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>1638374.49362253</v>
+        <v>1639126.57606207</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>1637547.88588474</v>
+        <v>1637734.4266154</v>
       </c>
       <c r="I72" s="0" t="n">
         <v>3</v>
@@ -2285,16 +2285,16 @@
         <v>10</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>301.902225971222</v>
+        <v>213.043209075928</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>1627050.05586989</v>
+        <v>1625539.40161155</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>1635005.15264377</v>
+        <v>1637583.88223238</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>1634613.49767242</v>
+        <v>1636872.84972189</v>
       </c>
       <c r="I73" s="0" t="n">
         <v>3</v>
@@ -2314,16 +2314,16 @@
         <v>10</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>265.125298023224</v>
+        <v>218.679730176926</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>1627836.76337824</v>
+        <v>1623464.95439159</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>1640315.15012336</v>
+        <v>1636811.43232238</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>1639816.8832273</v>
+        <v>1636705.40466282</v>
       </c>
       <c r="I74" s="0" t="n">
         <v>3</v>
@@ -2343,16 +2343,16 @@
         <v>10</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>186.370490074158</v>
+        <v>187.133337974548</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>1627947.99575862</v>
+        <v>1624585.11442998</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>1639070.64312927</v>
+        <v>1638698.75349371</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>1638150.47701565</v>
+        <v>1637831.92302728</v>
       </c>
       <c r="I75" s="0" t="n">
         <v>3</v>
@@ -2372,16 +2372,16 @@
         <v>10</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>272.427398920059</v>
+        <v>212.491536855698</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>1628617.81351313</v>
+        <v>1622969.35333392</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>1646028.03642294</v>
+        <v>1634998.75845374</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>1646028.03642294</v>
+        <v>1634723.01797279</v>
       </c>
       <c r="I76" s="0" t="n">
         <v>3</v>
@@ -2401,16 +2401,16 @@
         <v>10</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>243.722978115082</v>
+        <v>224.178840875626</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>1628315.01959502</v>
+        <v>1625874.65956343</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>1639989.88396192</v>
+        <v>1635577.61240719</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>1638352.29929518</v>
+        <v>1633944.27035106</v>
       </c>
       <c r="I77" s="0" t="n">
         <v>3</v>
@@ -2430,16 +2430,16 @@
         <v>10</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>276.405920982361</v>
+        <v>162.111762046814</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>1627083.51040657</v>
+        <v>1625345.16330082</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>1638746.42869667</v>
+        <v>1633407.01010828</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>1638195.30182321</v>
+        <v>1632022.01140457</v>
       </c>
       <c r="I78" s="0" t="n">
         <v>3</v>
@@ -2459,16 +2459,16 @@
         <v>10</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>240.218038082123</v>
+        <v>166.442065954208</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>1627267.89714903</v>
+        <v>1625024.85639728</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>1634373.06811632</v>
+        <v>1634897.85643375</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>1632750.74692407</v>
+        <v>1634871.73010952</v>
       </c>
       <c r="I79" s="0" t="n">
         <v>3</v>
@@ -2488,16 +2488,16 @@
         <v>10</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>398.489879846573</v>
+        <v>226.005459070206</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>1627076.08795617</v>
+        <v>1625784.76937422</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>1631477.46206541</v>
+        <v>1640396.20324578</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>1630715.48503508</v>
+        <v>1638980.7694851</v>
       </c>
       <c r="I80" s="0" t="n">
         <v>3</v>
@@ -2517,16 +2517,16 @@
         <v>10</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>296.717680931091</v>
+        <v>161.719194889069</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>1625184.6760726</v>
+        <v>1623578.13681596</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>1633629.75587728</v>
+        <v>1639196.31855645</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>1633101.13494758</v>
+        <v>1639196.31855645</v>
       </c>
       <c r="I81" s="0" t="n">
         <v>3</v>
@@ -2546,16 +2546,16 @@
         <v>10</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>345.231876134872</v>
+        <v>221.821910858154</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>1626930.86368575</v>
+        <v>1624065.83464047</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>1637176.68159696</v>
+        <v>1636828.85755927</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>1636203.82512492</v>
+        <v>1636384.25340727</v>
       </c>
       <c r="I82" s="0" t="n">
         <v>3</v>
@@ -2575,16 +2575,16 @@
         <v>10</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>378.916563034058</v>
+        <v>275.604513168335</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>1626578.43083015</v>
+        <v>1627364.38179506</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>1634651.54470131</v>
+        <v>1640446.95103338</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>1634651.54470131</v>
+        <v>1638911.42018136</v>
       </c>
       <c r="I83" s="0" t="n">
         <v>3</v>
@@ -2604,16 +2604,16 @@
         <v>10</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>352.316385030746</v>
+        <v>266.108160018921</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>1627377.36301568</v>
+        <v>1622714.88010223</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>1640279.01416998</v>
+        <v>1637238.9940884</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>1639550.79804873</v>
+        <v>1636870.12013841</v>
       </c>
       <c r="I84" s="0" t="n">
         <v>3</v>
@@ -2633,16 +2633,16 @@
         <v>10</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>268.395702123642</v>
+        <v>210.113500118256</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>1627362.74697697</v>
+        <v>1624745.44446625</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>1636868.25876521</v>
+        <v>1639108.36982613</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>1635680.52604357</v>
+        <v>1638968.56680661</v>
       </c>
       <c r="I85" s="0" t="n">
         <v>3</v>
@@ -2662,16 +2662,16 @@
         <v>10</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>333.26099395752</v>
+        <v>231.827661991119</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>1629423.67223383</v>
+        <v>1623102.89443452</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>1643958.27600989</v>
+        <v>1634085.34066746</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>1643852.1728908</v>
+        <v>1633587.01116446</v>
       </c>
       <c r="I86" s="0" t="n">
         <v>3</v>
@@ -2691,16 +2691,16 @@
         <v>10</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>290.827783107758</v>
+        <v>215.965200901031</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>1628518.38198337</v>
+        <v>1625721.1836264</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>1639365.03534664</v>
+        <v>1634720.2511095</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>1638854.5582074</v>
+        <v>1633522.8953243</v>
       </c>
       <c r="I87" s="0" t="n">
         <v>3</v>
@@ -2720,16 +2720,16 @@
         <v>10</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>249.572952032089</v>
+        <v>212.220830917358</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>1626929.22790131</v>
+        <v>1626431.58008806</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>1637557.41796352</v>
+        <v>1634692.66036135</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>1636739.31205472</v>
+        <v>1633788.33431277</v>
       </c>
       <c r="I88" s="0" t="n">
         <v>3</v>
@@ -2749,16 +2749,16 @@
         <v>10</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>288.845313072205</v>
+        <v>200.531301021576</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>1626188.51762824</v>
+        <v>1625980.02294382</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>1633010.85947372</v>
+        <v>1636291.05896534</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>1632217.58827109</v>
+        <v>1635110.02762176</v>
       </c>
       <c r="I89" s="0" t="n">
         <v>3</v>
@@ -2778,16 +2778,16 @@
         <v>10</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>398.680653095245</v>
+        <v>211.838295936584</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>1625641.1667012</v>
+        <v>1625022.08267511</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>1630318.75430705</v>
+        <v>1637673.68101373</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>1630063.58688777</v>
+        <v>1636731.94963987</v>
       </c>
       <c r="I90" s="0" t="n">
         <v>3</v>
@@ -2807,16 +2807,16 @@
         <v>10</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>309.250462055206</v>
+        <v>212.368754863739</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>1626829.37697523</v>
+        <v>1626301.23428063</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>1635426.46210298</v>
+        <v>1640619.08904783</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>1634926.98057527</v>
+        <v>1639041.15107377</v>
       </c>
       <c r="I91" s="0" t="n">
         <v>3</v>
@@ -2836,16 +2836,16 @@
         <v>10</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>450.826086997986</v>
+        <v>272.13342499733</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>1625324.70185285</v>
+        <v>1623431.28071067</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>1635101.04048422</v>
+        <v>1636993.11467806</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>1635101.04048422</v>
+        <v>1636624.3480568</v>
       </c>
       <c r="I92" s="0" t="n">
         <v>3</v>
@@ -2865,16 +2865,16 @@
         <v>10</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>368.989593029022</v>
+        <v>258.186944961548</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>1625887.94678741</v>
+        <v>1624130.52176061</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>1634568.39781164</v>
+        <v>1638618.52437962</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>1633899.82377428</v>
+        <v>1638618.52437962</v>
       </c>
       <c r="I93" s="0" t="n">
         <v>3</v>
@@ -2894,16 +2894,16 @@
         <v>10</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>375.144832849503</v>
+        <v>307.481873035431</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>1625701.96158759</v>
+        <v>1623091.65916364</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>1640828.05938042</v>
+        <v>1637510.98161161</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>1640416.47867391</v>
+        <v>1636112.78357687</v>
       </c>
       <c r="I94" s="0" t="n">
         <v>3</v>
@@ -2923,16 +2923,16 @@
         <v>10</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>245.481616973877</v>
+        <v>243.277375936508</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>1625626.80751571</v>
+        <v>1624017.0131235</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>1635962.09422527</v>
+        <v>1639950.3528684</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>1635962.09422527</v>
+        <v>1639950.3528684</v>
       </c>
       <c r="I95" s="0" t="n">
         <v>3</v>
@@ -2952,16 +2952,16 @@
         <v>10</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>353.420132875442</v>
+        <v>234.946525812149</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>1627605.33901034</v>
+        <v>1622769.80723856</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>1644798.67837412</v>
+        <v>1634393.35678131</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>1644441.68153439</v>
+        <v>1634373.69922245</v>
       </c>
       <c r="I96" s="0" t="n">
         <v>3</v>
@@ -2981,16 +2981,16 @@
         <v>10</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>390.592549085617</v>
+        <v>265.060302972794</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>1626047.53952358</v>
+        <v>1623726.82665872</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>1637213.12384295</v>
+        <v>1632573.5335666</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>1637213.12384295</v>
+        <v>1632309.24405689</v>
       </c>
       <c r="I97" s="0" t="n">
         <v>3</v>
@@ -3010,16 +3010,16 @@
         <v>10</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>335.810308933258</v>
+        <v>231.554865121841</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>1626705.17880251</v>
+        <v>1627071.20357899</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>1636133.4940959</v>
+        <v>1634108.40221847</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>1635905.34270972</v>
+        <v>1633487.67412518</v>
       </c>
       <c r="I98" s="0" t="n">
         <v>3</v>
@@ -3039,16 +3039,16 @@
         <v>10</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>299.386934041977</v>
+        <v>280.140510082245</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>1626997.88603083</v>
+        <v>1625489.28304294</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>1633441.83619795</v>
+        <v>1634124.32130557</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>1632764.70785521</v>
+        <v>1634025.31301188</v>
       </c>
       <c r="I99" s="0" t="n">
         <v>3</v>
@@ -3068,16 +3068,16 @@
         <v>10</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>399.554298877716</v>
+        <v>305.952194213867</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>1624744.59386191</v>
+        <v>1624943.9256689</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>1631180.59682801</v>
+        <v>1637444.94352571</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>1631180.59682801</v>
+        <v>1637072.12464073</v>
       </c>
       <c r="I100" s="0" t="n">
         <v>3</v>
@@ -3097,16 +3097,16 @@
         <v>10</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>405.861420869827</v>
+        <v>337.863358020782</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>1626725.68177558</v>
+        <v>1624048.09794484</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>1636040.40281772</v>
+        <v>1638264.1097856</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>1635649.0730646</v>
+        <v>1636677.05115752</v>
       </c>
       <c r="I101" s="0" t="n">
         <v>3</v>
